--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>936142.7754443501</v>
+        <v>890890.2769848498</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7558307.070167586</v>
+        <v>4888794.453803541</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8453391.791395465</v>
+        <v>9695759.993867662</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>165.1725371760947</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>143.2690424640644</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>18.45586161088168</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20.00402729331206</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.00402729331236</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>181.786595493176</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>48.98332984341912</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>135.5072338470352</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.2994675790488</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>211.3471441949932</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>143.4447424399497</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>119.5293992401244</v>
       </c>
       <c r="F7" t="n">
-        <v>29.8511617389823</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>18.15430933923916</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6761715944833</v>
+        <v>69.51187615730836</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3342338808923</v>
+        <v>302.3342338808924</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.662706914479</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>126.3796986693934</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.2205572464783</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0555276341844</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>279.3697794618695</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
-        <v>93.49542143817382</v>
+        <v>93.49542143817384</v>
       </c>
       <c r="I9" t="n">
-        <v>32.71530508318224</v>
+        <v>32.71530508318226</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>148.9019313373987</v>
       </c>
       <c r="V9" t="n">
-        <v>148.9019313373993</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>111.0980246761652</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.7638628228272</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>106.5295869551745</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.98401099232984</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2302973952356</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>257.5094147867065</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>48.28983649715951</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>243.2391485592449</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.1446905726942</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>117.7126336312593</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>26.89854620008827</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>266.275519286077</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>53.54735467376893</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>110.2504437088047</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>164.6037977632917</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>372.3626467544741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>150.4026958753527</v>
       </c>
       <c r="D19" t="n">
-        <v>122.3771411176215</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>28.34128745527079</v>
+        <v>265.9318059937542</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>54.7147473859692</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>136.5969222038841</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>58.92805047991983</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>20.7802394535694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="G25" t="n">
-        <v>145.6218733998539</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>376.4083266662149</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>176.8030671570845</v>
       </c>
     </row>
     <row r="27">
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>53.42628131784971</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>293.5228477376535</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>210.0946544764307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.5022119339174342</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>184.1641512798895</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>45.4208447171801</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>275.7779095904234</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>88.58584547962735</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>47.38664856090008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>323.9708417730891</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>47.43217639605622</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>98.02480001577868</v>
       </c>
       <c r="F37" t="n">
-        <v>122.8356027921138</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>211.0785184722391</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>316.3713552875016</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>42.62006017122142</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>378.9782692442517</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>323.4624061283627</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.99506094022712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>47.38664856090008</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.6667577510691853</v>
       </c>
       <c r="T44" t="n">
-        <v>58.82549813759859</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>28.03004253565281</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>81.46084344268498</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652804</v>
+        <v>338.1060369005844</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487954</v>
+        <v>338.1060369005844</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323104</v>
+        <v>338.1060369005844</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158255</v>
+        <v>338.1060369005844</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330561</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644752</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985581</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652804</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652804</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652804</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652804</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652804</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652804</v>
+        <v>338.1060369005844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.6784525769738</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>108.6784525769738</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>108.6784525769738</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>108.6784525769738</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>108.6784525769738</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>108.6784525769738</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153776</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264287</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>487.5180226099437</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099437</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099437</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099437</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X3" t="n">
-        <v>298.0982375934587</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>108.6784525769738</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910444</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910444</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910444</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910444</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404144</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910444</v>
+        <v>49.45491281910415</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1826.151173794701</v>
+        <v>1151.247572330273</v>
       </c>
       <c r="C5" t="n">
-        <v>1826.151173794701</v>
+        <v>1151.247572330273</v>
       </c>
       <c r="D5" t="n">
-        <v>1642.52835006422</v>
+        <v>792.9818737235228</v>
       </c>
       <c r="E5" t="n">
-        <v>1256.740097465976</v>
+        <v>407.1936211252785</v>
       </c>
       <c r="F5" t="n">
-        <v>845.7541926763686</v>
+        <v>400.2481203760751</v>
       </c>
       <c r="G5" t="n">
-        <v>429.7231473797759</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I5" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232724</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
         <v>1417.286540135168</v>
@@ -4588,31 +4588,31 @@
         <v>2021.630958172449</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642786</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T5" t="n">
-        <v>1826.151173794701</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U5" t="n">
-        <v>1826.151173794701</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="V5" t="n">
-        <v>1826.151173794701</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="W5" t="n">
-        <v>1826.151173794701</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="X5" t="n">
-        <v>1826.151173794701</v>
+        <v>1541.386904306085</v>
       </c>
       <c r="Y5" t="n">
-        <v>1826.151173794701</v>
+        <v>1151.247572330273</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809.4046422439259</v>
+        <v>941.5261380428188</v>
       </c>
       <c r="C6" t="n">
-        <v>634.9516129627989</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="D6" t="n">
-        <v>486.0172033015477</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E6" t="n">
-        <v>326.7797482960922</v>
+        <v>458.901244094985</v>
       </c>
       <c r="F6" t="n">
-        <v>180.2451903229772</v>
+        <v>312.36668612187</v>
       </c>
       <c r="G6" t="n">
-        <v>43.3691965380931</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H6" t="n">
-        <v>43.3691965380931</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562335</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K6" t="n">
         <v>246.6448318504523</v>
@@ -4679,19 +4679,19 @@
         <v>1766.227047333489</v>
       </c>
       <c r="U6" t="n">
-        <v>1538.125457466753</v>
+        <v>1552.745083500162</v>
       </c>
       <c r="V6" t="n">
-        <v>1538.125457466753</v>
+        <v>1317.59297526842</v>
       </c>
       <c r="W6" t="n">
-        <v>1393.231778234481</v>
+        <v>1317.59297526842</v>
       </c>
       <c r="X6" t="n">
-        <v>1185.380278028948</v>
+        <v>1109.741475062887</v>
       </c>
       <c r="Y6" t="n">
-        <v>977.6199792639939</v>
+        <v>1109.741475062887</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="C7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="D7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="E7" t="n">
-        <v>520.2893470406002</v>
+        <v>376.7296596422368</v>
       </c>
       <c r="F7" t="n">
-        <v>490.1366584153656</v>
+        <v>229.8397121443264</v>
       </c>
       <c r="G7" t="n">
-        <v>322.0038290103839</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="H7" t="n">
-        <v>171.9636155141766</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934478</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="J7" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K7" t="n">
         <v>92.71685897981541</v>
@@ -4746,31 +4746,31 @@
         <v>520.2893470406002</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="V7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="W7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="X7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514533</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>769.3365259970158</v>
+        <v>2019.094870121226</v>
       </c>
       <c r="C8" t="n">
-        <v>769.3365259970158</v>
+        <v>1650.132353180814</v>
       </c>
       <c r="D8" t="n">
-        <v>769.3365259970158</v>
+        <v>1291.866654574064</v>
       </c>
       <c r="E8" t="n">
-        <v>769.3365259970158</v>
+        <v>906.0784019758194</v>
       </c>
       <c r="F8" t="n">
-        <v>769.3365259970158</v>
+        <v>495.0924971862118</v>
       </c>
       <c r="G8" t="n">
-        <v>353.5020092349113</v>
+        <v>424.8784808656983</v>
       </c>
       <c r="H8" t="n">
-        <v>48.11389420370694</v>
+        <v>119.4903658344938</v>
       </c>
       <c r="I8" t="n">
-        <v>48.11389420370694</v>
+        <v>48.11389420370695</v>
       </c>
       <c r="J8" t="n">
-        <v>173.6006955371256</v>
+        <v>173.6006955371258</v>
       </c>
       <c r="K8" t="n">
-        <v>412.4113998844099</v>
+        <v>412.41139988441</v>
       </c>
       <c r="L8" t="n">
-        <v>745.5789575721424</v>
+        <v>745.5789575721426</v>
       </c>
       <c r="M8" t="n">
         <v>1147.961497459639</v>
@@ -4819,37 +4819,37 @@
         <v>1561.468815899342</v>
       </c>
       <c r="O8" t="n">
-        <v>1938.596789767454</v>
+        <v>1938.596789767453</v>
       </c>
       <c r="P8" t="n">
-        <v>2225.965789440888</v>
+        <v>2225.965789440889</v>
       </c>
       <c r="Q8" t="n">
-        <v>2393.595193823328</v>
+        <v>2393.595193823329</v>
       </c>
       <c r="R8" t="n">
-        <v>2405.694710185347</v>
+        <v>2405.694710185348</v>
       </c>
       <c r="S8" t="n">
-        <v>2278.038448903132</v>
+        <v>2405.694710185348</v>
       </c>
       <c r="T8" t="n">
-        <v>2068.72475471477</v>
+        <v>2405.694710185348</v>
       </c>
       <c r="U8" t="n">
-        <v>1815.133312660038</v>
+        <v>2405.694710185348</v>
       </c>
       <c r="V8" t="n">
-        <v>1532.941616233907</v>
+        <v>2405.694710185348</v>
       </c>
       <c r="W8" t="n">
-        <v>1532.941616233907</v>
+        <v>2405.694710185348</v>
       </c>
       <c r="X8" t="n">
-        <v>1159.475857972827</v>
+        <v>2405.694710185348</v>
       </c>
       <c r="Y8" t="n">
-        <v>769.3365259970158</v>
+        <v>2405.694710185348</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>175.5994765485111</v>
       </c>
       <c r="H9" t="n">
-        <v>81.15965691399204</v>
+        <v>81.15965691399205</v>
       </c>
       <c r="I9" t="n">
-        <v>48.11389420370694</v>
+        <v>48.11389420370695</v>
       </c>
       <c r="J9" t="n">
-        <v>104.035126450247</v>
+        <v>104.0351264502469</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7682440873327</v>
+        <v>277.7682440873326</v>
       </c>
       <c r="L9" t="n">
-        <v>557.6964019039187</v>
+        <v>557.6964019039185</v>
       </c>
       <c r="M9" t="n">
-        <v>903.716226889925</v>
+        <v>903.7162268899247</v>
       </c>
       <c r="N9" t="n">
-        <v>1273.302811944935</v>
+        <v>1273.302811944934</v>
       </c>
       <c r="O9" t="n">
         <v>1589.182537471366</v>
       </c>
       <c r="P9" t="n">
-        <v>1823.370799411578</v>
+        <v>1823.370799411577</v>
       </c>
       <c r="Q9" t="n">
         <v>1930.000254186833</v>
@@ -4916,7 +4916,7 @@
         <v>1930.000254186833</v>
       </c>
       <c r="U9" t="n">
-        <v>1930.000254186833</v>
+        <v>1779.594262936935</v>
       </c>
       <c r="V9" t="n">
         <v>1779.594262936935</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.11389420370694</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="C10" t="n">
-        <v>48.11389420370694</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="D10" t="n">
-        <v>48.11389420370694</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="E10" t="n">
-        <v>48.11389420370694</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="F10" t="n">
-        <v>48.11389420370694</v>
+        <v>485.1256997650975</v>
       </c>
       <c r="G10" t="n">
-        <v>48.11389420370694</v>
+        <v>317.0810262949509</v>
       </c>
       <c r="H10" t="n">
-        <v>48.11389420370694</v>
+        <v>167.8245992011861</v>
       </c>
       <c r="I10" t="n">
-        <v>48.11389420370694</v>
+        <v>60.21895581212093</v>
       </c>
       <c r="J10" t="n">
-        <v>48.11389420370694</v>
+        <v>48.11389420370695</v>
       </c>
       <c r="K10" t="n">
         <v>107.4998553139089</v>
       </c>
       <c r="L10" t="n">
-        <v>213.3992373663727</v>
+        <v>213.3992373663726</v>
       </c>
       <c r="M10" t="n">
-        <v>328.3135705658657</v>
+        <v>328.3135705658656</v>
       </c>
       <c r="N10" t="n">
-        <v>448.3530236739867</v>
+        <v>448.3530236739865</v>
       </c>
       <c r="O10" t="n">
-        <v>538.9157986502109</v>
+        <v>538.9157986502107</v>
       </c>
       <c r="P10" t="n">
-        <v>597.3459267107193</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="Q10" t="n">
-        <v>597.3459267107193</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="R10" t="n">
-        <v>597.3459267107193</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="S10" t="n">
-        <v>597.3459267107193</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="T10" t="n">
-        <v>597.3459267107193</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="U10" t="n">
-        <v>308.2244141902792</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="V10" t="n">
-        <v>308.2244141902792</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="W10" t="n">
-        <v>48.11389420370694</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="X10" t="n">
-        <v>48.11389420370694</v>
+        <v>597.3459267107189</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.11389420370694</v>
+        <v>597.3459267107189</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5059,34 +5059,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C13" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>209.0825109500564</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>440.0982547706554</v>
       </c>
       <c r="V13" t="n">
-        <v>666.202517612298</v>
+        <v>185.4137665647686</v>
       </c>
       <c r="W13" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X13" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y13" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1232.248790760447</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C14" t="n">
-        <v>863.2862738200351</v>
+        <v>806.3384156653776</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200351</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218343</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5293,10 +5293,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052369</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796418</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X14" t="n">
-        <v>2008.98796280038</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y14" t="n">
-        <v>1618.848630824569</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228003</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>627.8744564335971</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>627.8744564335971</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>920.887005818185</v>
+        <v>866.7987687739744</v>
       </c>
       <c r="T16" t="n">
-        <v>920.887005818185</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U16" t="n">
-        <v>809.5229212638368</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V16" t="n">
-        <v>809.5229212638368</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W16" t="n">
-        <v>809.5229212638368</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X16" t="n">
-        <v>809.5229212638368</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y16" t="n">
-        <v>809.5229212638368</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1892.184635123826</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C17" t="n">
-        <v>1523.222118183415</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D17" t="n">
-        <v>1164.956419576664</v>
+        <v>958.1473305693551</v>
       </c>
       <c r="E17" t="n">
-        <v>779.1681669784198</v>
+        <v>572.3590779711108</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734406</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y17" t="n">
-        <v>1892.184635123826</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>603.0669976776956</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="C19" t="n">
-        <v>603.0669976776956</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>479.4537238215122</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S19" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T19" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U19" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="V19" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="W19" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="X19" t="n">
-        <v>603.0669976776956</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="Y19" t="n">
-        <v>603.0669976776956</v>
+        <v>831.0565485757124</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1661.138951213861</v>
+        <v>1859.132475219474</v>
       </c>
       <c r="C20" t="n">
-        <v>1292.176434273449</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D20" t="n">
-        <v>933.9107356666987</v>
+        <v>1131.904259672312</v>
       </c>
       <c r="E20" t="n">
-        <v>548.1224830684544</v>
+        <v>746.116007074068</v>
       </c>
       <c r="F20" t="n">
-        <v>137.1365782788468</v>
+        <v>335.1301022844604</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W20" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X20" t="n">
-        <v>2051.278283189672</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y20" t="n">
-        <v>1661.138951213861</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5819,46 +5819,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>289.4823746594535</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C22" t="n">
-        <v>289.4823746594535</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D22" t="n">
-        <v>289.4823746594535</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>289.4823746594535</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596504</v>
@@ -5934,28 +5934,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T22" t="n">
-        <v>699.1203903877106</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="U22" t="n">
-        <v>699.1203903877106</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="V22" t="n">
-        <v>699.1203903877106</v>
+        <v>354.6054449393516</v>
       </c>
       <c r="W22" t="n">
-        <v>699.1203903877106</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="X22" t="n">
-        <v>471.1308394896932</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="Y22" t="n">
-        <v>471.1308394896932</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
@@ -6010,31 +6010,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3155.791869823214</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>3155.791869823214</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.8870058181845</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="C25" t="n">
-        <v>751.9508228902777</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="D25" t="n">
-        <v>751.9508228902777</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="E25" t="n">
-        <v>604.0377293078845</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="F25" t="n">
-        <v>457.1477818099742</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596504</v>
@@ -6180,19 +6180,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181845</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181845</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.8870058181845</v>
+        <v>87.68248070098065</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2268.308520734405</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C26" t="n">
-        <v>1899.346003793993</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D26" t="n">
-        <v>1541.080305187243</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E26" t="n">
-        <v>1155.292052588998</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F26" t="n">
-        <v>744.3061477993908</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>2268.308520734405</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986293</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.2351809199101</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="C28" t="n">
-        <v>675.2351809199101</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2351809199101</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596504</v>
@@ -6408,28 +6408,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R28" t="n">
-        <v>866.9210650930838</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S28" t="n">
-        <v>675.2351809199101</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T28" t="n">
-        <v>675.2351809199101</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U28" t="n">
-        <v>675.2351809199101</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V28" t="n">
-        <v>675.2351809199101</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W28" t="n">
-        <v>675.2351809199101</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X28" t="n">
-        <v>675.2351809199101</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.2351809199101</v>
+        <v>87.68248070098065</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1501.213961756482</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1132.25144481607</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>773.9857462093198</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>773.9857462093198</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>362.9998414197123</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
@@ -6478,37 +6478,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U29" t="n">
-        <v>3113.388998905705</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V29" t="n">
-        <v>2782.326111562134</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W29" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6563,7 +6563,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2471.230932223169</v>
+        <v>235.9555841418251</v>
       </c>
       <c r="C31" t="n">
-        <v>2471.230932223169</v>
+        <v>67.01940121391817</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.230932223169</v>
+        <v>67.01940121391817</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K31" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M31" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O31" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366698</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S31" t="n">
-        <v>3049.750969134487</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T31" t="n">
-        <v>3049.750969134487</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U31" t="n">
-        <v>2760.64810226013</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V31" t="n">
-        <v>2760.64810226013</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W31" t="n">
-        <v>2471.230932223169</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="X31" t="n">
-        <v>2471.230932223169</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="Y31" t="n">
-        <v>2471.230932223169</v>
+        <v>417.6040489720648</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1934.208022973022</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F32" t="n">
         <v>779.1681669784198</v>
@@ -6694,58 +6694,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3279.726180480706</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3026.195703754542</v>
       </c>
       <c r="V32" t="n">
-        <v>3047.042276568338</v>
+        <v>3026.195703754542</v>
       </c>
       <c r="W32" t="n">
-        <v>2694.273621298224</v>
+        <v>2673.427048484428</v>
       </c>
       <c r="X32" t="n">
-        <v>2320.807863037144</v>
+        <v>2299.961290223348</v>
       </c>
       <c r="Y32" t="n">
-        <v>2320.807863037144</v>
+        <v>1909.821958247536</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.992768431807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>155.992768431807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>155.992768431807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>155.992768431807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>155.992768431807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>155.992768431807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596504</v>
@@ -6891,19 +6891,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V34" t="n">
-        <v>666.2025176122977</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W34" t="n">
-        <v>376.7853475753371</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X34" t="n">
-        <v>376.7853475753371</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.992768431807</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1190.127582679363</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="C35" t="n">
-        <v>821.1650657389509</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
-        <v>821.1650657389509</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>821.1650657389509</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3277.694532320225</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3024.164055594061</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2693.10116825049</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W35" t="n">
-        <v>2340.332512980376</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X35" t="n">
-        <v>1966.866754719296</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y35" t="n">
-        <v>1576.727422743484</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.8870058181845</v>
+        <v>631.469835781224</v>
       </c>
       <c r="C37" t="n">
-        <v>751.9508228902777</v>
+        <v>462.5336528533171</v>
       </c>
       <c r="D37" t="n">
-        <v>601.8341834779419</v>
+        <v>312.4170134409813</v>
       </c>
       <c r="E37" t="n">
-        <v>601.8341834779419</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7134,13 +7134,13 @@
         <v>920.8870058181845</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181845</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181845</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.8870058181845</v>
+        <v>631.469835781224</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2303.170539913434</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C38" t="n">
-        <v>1934.208022973022</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>1105.781096096228</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>694.7951913066204</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>279.7227411516168</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3009.337405520487</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W38" t="n">
-        <v>3009.337405520487</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X38" t="n">
-        <v>3009.337405520487</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y38" t="n">
-        <v>2689.770379977556</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7265,13 +7265,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.564938772426</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596504</v>
@@ -7356,28 +7356,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R40" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>831.0565485757124</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V40" t="n">
-        <v>831.0565485757124</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W40" t="n">
-        <v>831.0565485757124</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X40" t="n">
-        <v>788.0059827461959</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y40" t="n">
-        <v>567.2134036026657</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1977.407367302545</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C41" t="n">
-        <v>1608.444850362133</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D41" t="n">
-        <v>1250.179151755382</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E41" t="n">
-        <v>864.3908991571382</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7447,16 +7447,16 @@
         <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539436</v>
+        <v>2745.345641723045</v>
       </c>
       <c r="W41" t="n">
-        <v>2741.012457539436</v>
+        <v>2392.57698645293</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.546699278356</v>
+        <v>2019.11122819185</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.407367302545</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="42">
@@ -7502,13 +7502,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>321.1611025578259</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>321.1611025578259</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>321.1611025578259</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>321.1611025578259</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>321.1611025578259</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7593,28 +7593,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U43" t="n">
-        <v>541.953681701356</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V43" t="n">
-        <v>541.953681701356</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W43" t="n">
-        <v>541.953681701356</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X43" t="n">
-        <v>541.953681701356</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y43" t="n">
-        <v>321.1611025578259</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1565.219016943946</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C44" t="n">
-        <v>1565.219016943946</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D44" t="n">
-        <v>1206.953318337195</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>821.1650657389512</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3324.932328931323</v>
       </c>
       <c r="T44" t="n">
-        <v>3266.186126520686</v>
+        <v>3324.932328931323</v>
       </c>
       <c r="U44" t="n">
-        <v>3012.655649794523</v>
+        <v>3071.401852205159</v>
       </c>
       <c r="V44" t="n">
-        <v>2681.592762450952</v>
+        <v>3071.401852205159</v>
       </c>
       <c r="W44" t="n">
-        <v>2328.824107180837</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X44" t="n">
-        <v>1955.358348919758</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y44" t="n">
-        <v>1565.219016943946</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,13 +7742,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.7614736385275</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>94.82529071062058</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>94.82529071062058</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>94.82529071062058</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>94.82529071062058</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>94.82529071062058</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181842</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V46" t="n">
-        <v>666.2025176122974</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W46" t="n">
-        <v>666.2025176122974</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X46" t="n">
-        <v>666.2025176122974</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y46" t="n">
-        <v>445.4099384687672</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
   </sheetData>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.7035085656168</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>82.38589573985801</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681128</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715738</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>37.06597233494178</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>172.8964461275069</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721423</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>108.2502407209699</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>115.5698862839489</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>70.66270691447897</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,10 +23080,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>48.38247900826536</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.20549727320315</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.6413924703699</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3436201790821</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8137252499236</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>83.89865581202596</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3642267354451</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7638628228272</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>106.5295869551745</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.98401099232981</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.28665244236498</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.1486779823913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.6667364159068</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9949191299504</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>29.01358354988446</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>358.5862092445519</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>126.4919521192241</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>3.610324341626551</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>168.8103647053317</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>327.7844954205947</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>103.455581392392</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>136.221670657673</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>175.9613944968082</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>242.2722479784198</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.87529190157949</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>16.84412522327517</v>
       </c>
       <c r="D19" t="n">
-        <v>26.23833190059084</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>382.5804381981827</v>
+        <v>144.9899196596992</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>90.70630063696204</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24186,13 +24186,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>149.9260761327069</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>144.9899196597003</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>348.9508612248997</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>124.462387396822</v>
       </c>
       <c r="G25" t="n">
-        <v>20.40393485917431</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>34.51339898723859</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>209.4348714989691</v>
       </c>
     </row>
     <row r="27">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>124.462387396822</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.50587135219763</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>117.3988779157999</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>40.90051748247129</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>145.9317507126517</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>5.604874051552372</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>158.4971254224401</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>51.9743488797115</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25092,7 +25092,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>56.16916943469343</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25131,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>41.30204999791846</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.4857937435639</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.40916263079049</v>
       </c>
       <c r="F37" t="n">
-        <v>22.58544523081746</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>83.52924591508136</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.86658336855203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>183.0895952178157</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>27.89777649745974</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>4.289852341772189</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>155.0307473188011</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>108.5210040371067</v>
       </c>
       <c r="T44" t="n">
-        <v>145.0924720020216</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>116.724972378668</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,19 +26079,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>399935.1469234779</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>619807.8782613195</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>654641.2904718813</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789698.3456849989</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849988</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789698.3456849987</v>
+        <v>789698.345684999</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183303.6090065939</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="C2" t="n">
-        <v>284078.6108697713</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="D2" t="n">
-        <v>300043.9247996121</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
         <v>361945.0751056244</v>
       </c>
       <c r="F2" t="n">
-        <v>361945.0751056245</v>
+        <v>361945.0751056243</v>
       </c>
       <c r="G2" t="n">
-        <v>361945.0751056245</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="H2" t="n">
         <v>361945.0751056244</v>
       </c>
       <c r="I2" t="n">
+        <v>361945.0751056243</v>
+      </c>
+      <c r="J2" t="n">
         <v>361945.0751056244</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>361945.0751056243</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>361945.0751056245</v>
+      </c>
+      <c r="M2" t="n">
+        <v>361945.0751056243</v>
+      </c>
+      <c r="N2" t="n">
+        <v>361945.0751056242</v>
+      </c>
+      <c r="O2" t="n">
+        <v>361945.0751056245</v>
+      </c>
+      <c r="P2" t="n">
         <v>361945.0751056244</v>
-      </c>
-      <c r="L2" t="n">
-        <v>361945.0751056244</v>
-      </c>
-      <c r="M2" t="n">
-        <v>361945.0751056244</v>
-      </c>
-      <c r="N2" t="n">
-        <v>361945.0751056243</v>
-      </c>
-      <c r="O2" t="n">
-        <v>361945.0751056244</v>
-      </c>
-      <c r="P2" t="n">
-        <v>361945.0751056243</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861781</v>
+        <v>392510.2442861784</v>
       </c>
       <c r="D3" t="n">
-        <v>59871.45719829597</v>
+        <v>59871.45719829579</v>
       </c>
       <c r="E3" t="n">
-        <v>219439.6828815238</v>
+        <v>219439.6828815242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854466</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487788</v>
+        <v>91259.95686487785</v>
       </c>
       <c r="L3" t="n">
-        <v>15010.50346109835</v>
+        <v>15010.50346109849</v>
       </c>
       <c r="M3" t="n">
-        <v>57311.38215281568</v>
+        <v>57311.38215281566</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723342</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3219252469141</v>
+        <v>174202.9900888975</v>
       </c>
       <c r="D4" t="n">
-        <v>425.207550599381</v>
+        <v>157675.7383646805</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.646989006123</v>
@@ -26459,7 +26459,7 @@
         <v>584.646989006123</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.646989006123</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.0818558723</v>
@@ -26478,7 +26478,7 @@
         <v>89860.11994103159</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,31 +26487,31 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="I5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-465176.8940439377</v>
+        <v>-475306.2943412332</v>
       </c>
       <c r="C6" t="n">
-        <v>-194015.0371975261</v>
+        <v>-200339.3428055927</v>
       </c>
       <c r="D6" t="n">
-        <v>149887.1401096851</v>
+        <v>144165.657921348</v>
       </c>
       <c r="E6" t="n">
-        <v>67614.40467370124</v>
+        <v>63540.40929553115</v>
       </c>
       <c r="F6" t="n">
-        <v>287054.0875552251</v>
+        <v>282980.0921770553</v>
       </c>
       <c r="G6" t="n">
-        <v>287054.0875552251</v>
+        <v>282980.0921770557</v>
       </c>
       <c r="H6" t="n">
-        <v>287054.0875552252</v>
+        <v>282980.0921770553</v>
       </c>
       <c r="I6" t="n">
-        <v>287054.087555225</v>
+        <v>282980.0921770553</v>
       </c>
       <c r="J6" t="n">
-        <v>237989.1428266802</v>
+        <v>233915.1474485108</v>
       </c>
       <c r="K6" t="n">
-        <v>195794.1306903471</v>
+        <v>191720.1353121775</v>
       </c>
       <c r="L6" t="n">
-        <v>272043.5840941266</v>
+        <v>267969.588715957</v>
       </c>
       <c r="M6" t="n">
-        <v>229742.7054024093</v>
+        <v>225668.7100242396</v>
       </c>
       <c r="N6" t="n">
-        <v>287054.0875552249</v>
+        <v>282980.0921770551</v>
       </c>
       <c r="O6" t="n">
-        <v>287054.087555225</v>
+        <v>282980.0921770554</v>
       </c>
       <c r="P6" t="n">
-        <v>287054.0875552249</v>
+        <v>282980.0921770554</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376848</v>
       </c>
       <c r="D3" t="n">
-        <v>902.1082727621249</v>
+        <v>902.1082727621247</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261638</v>
+        <v>542.1149567261639</v>
       </c>
       <c r="D4" t="n">
-        <v>601.4236775463368</v>
+        <v>601.4236775463369</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.24072362478</v>
+        <v>305.2407236247802</v>
       </c>
       <c r="D3" t="n">
-        <v>48.39760822444009</v>
+        <v>48.39760822443986</v>
       </c>
       <c r="E3" t="n">
-        <v>187.6684278311734</v>
+        <v>187.6684278311739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
+        <v>354.589369559844</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.30872082017301</v>
+      </c>
+      <c r="E4" t="n">
+        <v>229.977777855956</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="K4" t="n">
         <v>354.5893695598437</v>
       </c>
-      <c r="D4" t="n">
-        <v>59.30872082017299</v>
-      </c>
-      <c r="E4" t="n">
-        <v>229.9777778559559</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>187.5255871663201</v>
-      </c>
-      <c r="K4" t="n">
-        <v>354.5893695598438</v>
-      </c>
       <c r="L4" t="n">
-        <v>59.30872082017277</v>
+        <v>59.30872082017335</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559561</v>
+        <v>229.977777855956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598437</v>
+        <v>354.589369559844</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017299</v>
+        <v>59.30872082017301</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559559</v>
+        <v>229.977777855956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>242.9688961919892</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>60.69123123399646</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>125.4170207296192</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>362.8874050002077</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>14.47342977307531</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>26.90456340644479</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>342.1642954371749</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>126.3796986693934</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.20549727320318</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>135.6413924703699</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.3436201790821</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>76.91179391252493</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>34.32302334676602</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.28665244236501</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>104.1486779823913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.6667364159068</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9949191299504</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2302973952356</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.626565920651756</v>
+        <v>3.626565920651755</v>
       </c>
       <c r="H8" t="n">
-        <v>37.1405682348748</v>
+        <v>37.14056823487479</v>
       </c>
       <c r="I8" t="n">
         <v>139.8131826559269</v>
@@ -31527,37 +31527,37 @@
         <v>307.8002493079172</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3127847291061</v>
+        <v>461.312784729106</v>
       </c>
       <c r="L8" t="n">
-        <v>572.2993015232524</v>
+        <v>572.2993015232523</v>
       </c>
       <c r="M8" t="n">
-        <v>636.7932432146431</v>
+        <v>636.7932432146429</v>
       </c>
       <c r="N8" t="n">
-        <v>647.0972236366949</v>
+        <v>647.0972236366947</v>
       </c>
       <c r="O8" t="n">
-        <v>611.035558763214</v>
+        <v>611.0355587632138</v>
       </c>
       <c r="P8" t="n">
-        <v>521.5047125971237</v>
+        <v>521.5047125971236</v>
       </c>
       <c r="Q8" t="n">
-        <v>391.6283205637826</v>
+        <v>391.6283205637824</v>
       </c>
       <c r="R8" t="n">
         <v>227.807271513141</v>
       </c>
       <c r="S8" t="n">
-        <v>82.64037091685196</v>
+        <v>82.64037091685195</v>
       </c>
       <c r="T8" t="n">
-        <v>15.87529231765307</v>
+        <v>15.87529231765306</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2901252736521404</v>
+        <v>0.2901252736521403</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,28 +31600,28 @@
         <v>18.74002279832263</v>
       </c>
       <c r="I9" t="n">
-        <v>66.80707491681775</v>
+        <v>66.80707491681774</v>
       </c>
       <c r="J9" t="n">
-        <v>183.32371984499</v>
+        <v>183.3237198449899</v>
       </c>
       <c r="K9" t="n">
         <v>313.3294365875769</v>
       </c>
       <c r="L9" t="n">
-        <v>421.3100947461226</v>
+        <v>421.3100947461225</v>
       </c>
       <c r="M9" t="n">
-        <v>491.649008655358</v>
+        <v>491.6490086553579</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6614949671816</v>
+        <v>504.6614949671815</v>
       </c>
       <c r="O9" t="n">
-        <v>461.6666742691226</v>
+        <v>461.6666742691224</v>
       </c>
       <c r="P9" t="n">
-        <v>370.5282073539377</v>
+        <v>370.5282073539376</v>
       </c>
       <c r="Q9" t="n">
         <v>247.6882940610272</v>
@@ -31633,7 +31633,7 @@
         <v>36.04177863346789</v>
       </c>
       <c r="T9" t="n">
-        <v>7.821108515739552</v>
+        <v>7.821108515739549</v>
       </c>
       <c r="U9" t="n">
         <v>0.1276568310512441</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.626752623013668</v>
+        <v>1.626752623013667</v>
       </c>
       <c r="H10" t="n">
-        <v>14.46330968461244</v>
+        <v>14.46330968461243</v>
       </c>
       <c r="I10" t="n">
-        <v>48.92088797208377</v>
+        <v>48.92088797208375</v>
       </c>
       <c r="J10" t="n">
         <v>115.0114104470663</v>
@@ -31688,13 +31688,13 @@
         <v>188.9990774737697</v>
       </c>
       <c r="L10" t="n">
-        <v>241.8537490615048</v>
+        <v>241.8537490615047</v>
       </c>
       <c r="M10" t="n">
-        <v>255.000867987497</v>
+        <v>255.0008679874969</v>
       </c>
       <c r="N10" t="n">
-        <v>248.937517301719</v>
+        <v>248.9375173017189</v>
       </c>
       <c r="O10" t="n">
         <v>229.9340889328774</v>
@@ -31703,19 +31703,19 @@
         <v>196.7483354233984</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.2183491870809</v>
+        <v>136.2183491870808</v>
       </c>
       <c r="R10" t="n">
-        <v>73.14471339477817</v>
+        <v>73.14471339477815</v>
       </c>
       <c r="S10" t="n">
         <v>28.34986162106545</v>
       </c>
       <c r="T10" t="n">
-        <v>6.950670298331124</v>
+        <v>6.950670298331122</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08873196125529106</v>
+        <v>0.08873196125529105</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563555</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33678,7 +33678,7 @@
         <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R35" t="n">
         <v>275.1987363563568</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33912,7 +33912,7 @@
         <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
         <v>473.0999946781689</v>
@@ -33982,7 +33982,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.7086478970249</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34477,7 +34477,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34526,16 +34526,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34544,19 +34544,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>126.7543447812309</v>
       </c>
       <c r="K8" t="n">
-        <v>241.2229336841256</v>
+        <v>241.2229336841255</v>
       </c>
       <c r="L8" t="n">
-        <v>336.5328865532652</v>
+        <v>336.5328865532651</v>
       </c>
       <c r="M8" t="n">
-        <v>406.4470099873704</v>
+        <v>406.4470099873702</v>
       </c>
       <c r="N8" t="n">
-        <v>417.684160040104</v>
+        <v>417.6841600401038</v>
       </c>
       <c r="O8" t="n">
-        <v>380.9373473415272</v>
+        <v>380.937347341527</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2717168418541</v>
+        <v>290.271716841854</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.3226306893331</v>
+        <v>169.322630689333</v>
       </c>
       <c r="R8" t="n">
-        <v>12.22173369900892</v>
+        <v>12.22173369900887</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.48609317832327</v>
+        <v>56.48609317832322</v>
       </c>
       <c r="K9" t="n">
         <v>175.4879976132179</v>
       </c>
       <c r="L9" t="n">
-        <v>282.7557149662484</v>
+        <v>282.7557149662483</v>
       </c>
       <c r="M9" t="n">
-        <v>349.5149747333397</v>
+        <v>349.5149747333396</v>
       </c>
       <c r="N9" t="n">
-        <v>373.3197828838482</v>
+        <v>373.3197828838481</v>
       </c>
       <c r="O9" t="n">
-        <v>319.0704298246781</v>
+        <v>319.070429824678</v>
       </c>
       <c r="P9" t="n">
-        <v>236.5537999396075</v>
+        <v>236.5537999396074</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7065199750057</v>
+        <v>107.7065199750056</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>59.98581930323434</v>
+        <v>59.98581930323428</v>
       </c>
       <c r="L10" t="n">
-        <v>106.9690727802665</v>
+        <v>106.9690727802664</v>
       </c>
       <c r="M10" t="n">
         <v>116.0750840398919</v>
       </c>
       <c r="N10" t="n">
-        <v>121.2519728364858</v>
+        <v>121.2519728364857</v>
       </c>
       <c r="O10" t="n">
-        <v>91.47755048103463</v>
+        <v>91.47755048103457</v>
       </c>
       <c r="P10" t="n">
-        <v>59.02033137425082</v>
+        <v>59.02033137425076</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222342</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
@@ -37630,7 +37630,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525805</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
         <v>157.2826706286436</v>
@@ -38189,13 +38189,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
